--- a/字体说明.xlsx
+++ b/字体说明.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>精选中地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,14 +94,6 @@
   <si>
     <t>尺寸
 （大-&gt;小）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正文
-     - 精选：图片中用户昵称
-     - 活动：还有xx天
-     - 我的：页顶昵称下面的文字
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,10 +114,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">顶部导航
-     - 所有页面顶部导航位置的文字
-     - 我的：昵称
-</t>
+    <t>29B6F6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,7 +133,25 @@
      - 我的：共xxx个标签
      - 我的：每天的日期、标签个数
      - 我的：关注、粉丝、推荐列表中内容
-     - 创建-&gt;文字：地址下拉列表</t>
+     - 创建：文字页所有文字内容
+     - 标签详情：点“更多”后弹出的窗口中的文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部导航
+     - 所有页面顶部导航位置的文字
+     - 我的：昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     - 标签详情：点“更多”后弹出的窗口的“关闭”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文
+     - 精选：图片中用户昵称
+     - 活动：还有xx天
+     - 我的：页顶昵称下面的文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,16 +539,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -573,85 +584,85 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="66" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4">
-        <v>696969</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="198" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
         <v>696969</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="4">
+        <v>696969</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="99" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="99" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -661,25 +672,38 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
